--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
     <sheet name="panje" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="pashne" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="langesh jadid" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="somchini" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AJ$1111</definedName>
@@ -58,6 +58,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">روزه</t>
     </r>
@@ -180,6 +181,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ترخیص</t>
     </r>
@@ -201,6 +203,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مزمن</t>
     </r>
@@ -222,6 +225,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مزمن</t>
     </r>
@@ -249,6 +253,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ترخیص</t>
     </r>
@@ -270,6 +275,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مزمن</t>
     </r>
@@ -363,6 +369,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">حذف</t>
     </r>
@@ -397,6 +404,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مفصلی </t>
     </r>
@@ -418,6 +426,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">در رفتگی لگن حذف </t>
     </r>
@@ -439,6 +448,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مفصلی  حذف</t>
     </r>
@@ -460,6 +470,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مفصلی </t>
     </r>
@@ -484,6 +495,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۳</t>
     </r>
@@ -517,6 +529,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مزمن </t>
     </r>
@@ -538,6 +551,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> مزمن </t>
     </r>
@@ -607,6 +621,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مفصلی</t>
     </r>
@@ -628,6 +643,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مزمت</t>
     </r>
@@ -677,6 +693,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مزمن</t>
     </r>
@@ -688,6 +705,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تریخص </t>
     </r>
@@ -738,6 +756,7 @@
       <color rgb="FF000000"/>
       <name val="Lohit Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -818,7 +837,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -848,10 +867,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -945,16 +960,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AJ1111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1091" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29084,13 +29099,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ1111">
-    <filterColumn colId="29">
-      <customFilters and="true">
-        <customFilter operator="equal" val="*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ1111"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -29109,8 +29118,8 @@
   </sheetPr>
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29273,13 +29282,13 @@
       <c r="C6" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="4" t="n">
         <v>6139</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -29302,22 +29311,22 @@
       <c r="C7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="4" t="n">
         <v>6474</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="8" t="n">
         <v>7715</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -29331,13 +29340,13 @@
       <c r="C8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="4" t="n">
         <v>6850</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -29360,13 +29369,13 @@
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="4" t="n">
         <v>6885</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -29476,13 +29485,13 @@
       <c r="C13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="8" t="n">
         <v>7715</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="8" t="n">
         <v>8</v>
       </c>
       <c r="I13" s="4" t="n">
@@ -29824,13 +29833,13 @@
       <c r="C25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="9" t="n">
         <v>22171</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="9" t="n">
         <v>8</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -29911,13 +29920,13 @@
       <c r="C28" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="9" t="n">
         <v>22171</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -31389,7 +31398,7 @@
   </sheetPr>
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -33399,7 +33408,7 @@
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="n">
@@ -33449,13 +33458,13 @@
       <c r="G2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="4" t="n">
         <v>1637</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -33536,13 +33545,13 @@
       <c r="G5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="4" t="n">
         <v>3691</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33594,13 +33603,13 @@
       <c r="G7" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="4" t="n">
         <v>4652</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33623,13 +33632,13 @@
       <c r="G8" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="4" t="n">
         <v>5021</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33652,13 +33661,13 @@
       <c r="G9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="4" t="n">
         <v>5260</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33681,13 +33690,13 @@
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="4" t="n">
         <v>6139</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33710,13 +33719,13 @@
       <c r="G11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="4" t="n">
         <v>6388</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33797,13 +33806,13 @@
       <c r="G14" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="4" t="n">
         <v>6507</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33826,13 +33835,13 @@
       <c r="G15" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="4" t="n">
         <v>6549</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33884,13 +33893,13 @@
       <c r="G17" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="4" t="n">
         <v>6716</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33942,13 +33951,13 @@
       <c r="G19" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="4" t="n">
         <v>6949</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33971,13 +33980,13 @@
       <c r="G20" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="4" t="n">
         <v>7003</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34000,13 +34009,13 @@
       <c r="G21" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="4" t="n">
         <v>7003</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -34029,13 +34038,13 @@
       <c r="G22" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="4" t="n">
         <v>7020</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -34058,13 +34067,13 @@
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="4" t="n">
         <v>7020</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34087,13 +34096,13 @@
       <c r="G24" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="4" t="n">
         <v>7020</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34116,13 +34125,13 @@
       <c r="G25" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="4" t="n">
         <v>7023</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34145,13 +34154,13 @@
       <c r="G26" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="4" t="n">
         <v>7023</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34174,13 +34183,13 @@
       <c r="G27" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="4" t="n">
         <v>7108</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34203,13 +34212,13 @@
       <c r="G28" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="4" t="n">
         <v>7167</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34261,13 +34270,13 @@
       <c r="G30" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="4" t="n">
         <v>7255</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34290,13 +34299,13 @@
       <c r="G31" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="4" t="n">
         <v>7255</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34319,13 +34328,13 @@
       <c r="G32" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="8" t="n">
+      <c r="I32" s="4" t="n">
         <v>7255</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34348,13 +34357,13 @@
       <c r="G33" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I33" s="8" t="n">
+      <c r="I33" s="4" t="n">
         <v>7263</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34397,13 +34406,13 @@
       <c r="C35" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I35" s="8" t="n">
+      <c r="I35" s="4" t="n">
         <v>7441</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34417,13 +34426,13 @@
       <c r="C36" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I36" s="4" t="n">
         <v>7460</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34437,68 +34446,68 @@
       <c r="C37" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="8" t="n">
+      <c r="I37" s="4" t="n">
         <v>7715</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K37" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="8" t="n">
+      <c r="I38" s="4" t="n">
         <v>8100</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="8" t="n">
+      <c r="I39" s="4" t="n">
         <v>8143</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K39" s="8" t="n">
+      <c r="K39" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="8" t="n">
+      <c r="I40" s="4" t="n">
         <v>8160</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="8" t="n">
+      <c r="J40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="8" t="n">
+      <c r="I41" s="4" t="n">
         <v>8200</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="8" t="n">
+      <c r="I42" s="4" t="n">
         <v>8200</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34514,35 +34523,35 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="8" t="n">
+      <c r="I44" s="4" t="n">
         <v>8340</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="8" t="n">
+      <c r="I45" s="4" t="n">
         <v>8386</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="8" t="n">
+      <c r="I46" s="4" t="n">
         <v>8401</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34558,35 +34567,35 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="8" t="n">
+      <c r="I48" s="4" t="n">
         <v>8466</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K48" s="8" t="n">
+      <c r="K48" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="8" t="n">
+      <c r="I49" s="4" t="n">
         <v>8596</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K49" s="8" t="n">
+      <c r="K49" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="8" t="n">
+      <c r="I50" s="4" t="n">
         <v>8904</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K50" s="8" t="n">
+      <c r="K50" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34613,13 +34622,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="8" t="n">
+      <c r="I53" s="4" t="n">
         <v>9195</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34635,24 +34644,24 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="8" t="n">
+      <c r="I55" s="4" t="n">
         <v>9291</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="8" t="n">
+      <c r="K55" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="8" t="n">
+      <c r="I56" s="4" t="n">
         <v>9301</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -34668,35 +34677,35 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="8" t="n">
+      <c r="I58" s="4" t="n">
         <v>9442</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K58" s="8" t="n">
+      <c r="K58" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="8" t="n">
+      <c r="I59" s="4" t="n">
         <v>9570</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="8" t="n">
+      <c r="I60" s="4" t="n">
         <v>9570</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34712,46 +34721,46 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="8" t="n">
+      <c r="I62" s="4" t="n">
         <v>9736</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="8" t="n">
+      <c r="K62" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="8" t="n">
+      <c r="I63" s="4" t="n">
         <v>9841</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="8" t="n">
+      <c r="K63" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="8" t="n">
+      <c r="I64" s="4" t="n">
         <v>9923</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K64" s="8" t="n">
+      <c r="K64" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="8" t="n">
+      <c r="I65" s="4" t="n">
         <v>9942</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K65" s="8" t="n">
+      <c r="K65" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34767,35 +34776,35 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="8" t="n">
+      <c r="I67" s="4" t="n">
         <v>20310</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K67" s="8" t="n">
+      <c r="K67" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="8" t="n">
+      <c r="I68" s="4" t="n">
         <v>20310</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K68" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="8" t="n">
+      <c r="I69" s="4" t="n">
         <v>20329</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34811,24 +34820,24 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="8" t="n">
+      <c r="I71" s="4" t="n">
         <v>20413</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K71" s="8" t="n">
+      <c r="K71" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="8" t="n">
+      <c r="I72" s="4" t="n">
         <v>20526</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K72" s="8" t="n">
+      <c r="K72" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34844,90 +34853,90 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="8" t="n">
+      <c r="I74" s="4" t="n">
         <v>20594</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K74" s="8" t="n">
+      <c r="J74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="8" t="n">
+      <c r="I75" s="4" t="n">
         <v>20656</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K75" s="8" t="n">
+      <c r="K75" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="8" t="n">
+      <c r="I76" s="4" t="n">
         <v>20680</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K76" s="8" t="n">
+      <c r="K76" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="8" t="n">
+      <c r="I77" s="4" t="n">
         <v>20689</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K77" s="8" t="n">
+      <c r="K77" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="8" t="n">
+      <c r="I78" s="4" t="n">
         <v>20691</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K78" s="8" t="n">
+      <c r="K78" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="8" t="n">
+      <c r="I79" s="4" t="n">
         <v>20752</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K79" s="8" t="n">
+      <c r="K79" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="8" t="n">
+      <c r="I80" s="4" t="n">
         <v>20871</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K80" s="8" t="n">
+      <c r="K80" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="8" t="n">
+      <c r="I81" s="4" t="n">
         <v>20979</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K81" s="8" t="n">
+      <c r="K81" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34943,211 +34952,211 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="8" t="n">
+      <c r="I83" s="4" t="n">
         <v>21409</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K83" s="8" t="n">
+      <c r="K83" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="8" t="n">
+      <c r="I84" s="4" t="n">
         <v>21409</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K84" s="8" t="n">
+      <c r="K84" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="8" t="n">
+      <c r="I85" s="4" t="n">
         <v>21832</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K85" s="8" t="n">
+      <c r="K85" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="8" t="n">
+      <c r="I86" s="4" t="n">
         <v>21832</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K86" s="8" t="n">
+      <c r="K86" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="8" t="n">
+      <c r="I87" s="4" t="n">
         <v>21876</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K87" s="8" t="n">
+      <c r="K87" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="8" t="n">
+      <c r="I88" s="4" t="n">
         <v>21876</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K88" s="8" t="n">
+      <c r="K88" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="8" t="n">
+      <c r="I89" s="4" t="n">
         <v>22171</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K89" s="8" t="n">
+      <c r="K89" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="8" t="n">
+      <c r="I90" s="4" t="n">
         <v>22235</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K90" s="8" t="n">
+      <c r="K90" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="8" t="n">
+      <c r="I91" s="4" t="n">
         <v>22235</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K91" s="8" t="n">
+      <c r="K91" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="8" t="n">
+      <c r="I92" s="4" t="n">
         <v>22245</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K92" s="8" t="n">
+      <c r="K92" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="8" t="n">
+      <c r="I93" s="4" t="n">
         <v>22408</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K93" s="8" t="n">
+      <c r="K93" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="8" t="n">
+      <c r="I94" s="4" t="n">
         <v>22420</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="J94" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="8" t="n">
+      <c r="K94" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="8" t="n">
+      <c r="I95" s="4" t="n">
         <v>22420</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K95" s="8" t="n">
+      <c r="K95" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="8" t="n">
+      <c r="I96" s="4" t="n">
         <v>22441</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K96" s="8" t="n">
+      <c r="K96" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="8" t="n">
+      <c r="I97" s="4" t="n">
         <v>22509</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K97" s="8" t="n">
+      <c r="K97" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="8" t="n">
+      <c r="I98" s="4" t="n">
         <v>22722</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K98" s="8" t="n">
+      <c r="K98" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="8" t="n">
+      <c r="I99" s="4" t="n">
         <v>23493</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K99" s="8" t="n">
+      <c r="K99" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="8" t="n">
+      <c r="I100" s="4" t="n">
         <v>23493</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K100" s="8" t="n">
+      <c r="K100" s="4" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="8" t="n">
+      <c r="I101" s="4" t="n">
         <v>24162</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K101" s="8" t="n">
+      <c r="K101" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -35169,7 +35178,7 @@
   </sheetPr>
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -35185,10 +35194,10 @@
       <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="11" t="n">
+      <c r="D1" s="10" t="n">
         <v>5021</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35199,10 +35208,10 @@
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="10" t="n">
         <v>6445</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35213,10 +35222,10 @@
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="10" t="n">
         <v>6697</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35227,10 +35236,10 @@
       <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="10" t="n">
         <v>7263</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35241,10 +35250,10 @@
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="10" t="n">
         <v>8466</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35255,10 +35264,10 @@
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="10" t="n">
         <v>20912</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35269,10 +35278,10 @@
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="10" t="n">
         <v>22072</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35283,10 +35292,10 @@
       <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="10" t="n">
         <v>22235</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35297,10 +35306,10 @@
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="10" t="n">
         <v>22305</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35311,10 +35320,10 @@
       <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <v>22408</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35325,10 +35334,10 @@
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="10" t="n">
         <v>8439</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -35339,10 +35348,10 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="10" t="n">
         <v>20689</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -35353,10 +35362,10 @@
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="10" t="n">
         <v>21976</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -35367,10 +35376,10 @@
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="10" t="n">
         <v>22293</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -35381,10 +35390,10 @@
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="10" t="n">
         <v>7003</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -35395,10 +35404,10 @@
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="10" t="n">
         <v>9103</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -35409,10 +35418,10 @@
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="10" t="n">
         <v>9570</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -35423,10 +35432,10 @@
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="10" t="n">
         <v>20310</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -35437,10 +35446,10 @@
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="10" t="n">
         <v>20656</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -35451,10 +35460,10 @@
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="10" t="n">
         <v>20732</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -35465,10 +35474,10 @@
       <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="10" t="n">
         <v>21409</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -35479,10 +35488,10 @@
       <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="10" t="n">
         <v>8711</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -35493,10 +35502,10 @@
       <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="10" t="n">
         <v>20549</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -35507,10 +35516,10 @@
       <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="10" t="n">
         <v>20691</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -35521,10 +35530,10 @@
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="10" t="n">
         <v>21444</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -35535,10 +35544,10 @@
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="10" t="n">
         <v>22785</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -35549,10 +35558,10 @@
       <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="10" t="n">
         <v>20615</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -35563,10 +35572,10 @@
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="10" t="n">
         <v>22059</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -35577,10 +35586,10 @@
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="10" t="n">
         <v>4652</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -35591,10 +35600,10 @@
       <c r="B30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="10" t="n">
         <v>6998</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -35605,10 +35614,10 @@
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="10" t="n">
         <v>7347</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -35619,10 +35628,10 @@
       <c r="B32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="10" t="n">
         <v>9157</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -35633,10 +35642,10 @@
       <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="10" t="n">
         <v>22117</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -35647,10 +35656,10 @@
       <c r="B34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="10" t="n">
         <v>8160</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -35661,10 +35670,10 @@
       <c r="B35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="10" t="n">
         <v>20449</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -35675,10 +35684,10 @@
       <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="10" t="n">
         <v>20594</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -35689,10 +35698,10 @@
       <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="10" t="n">
         <v>1637</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -35703,10 +35712,10 @@
       <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D38" s="10" t="n">
         <v>3420</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -35717,10 +35726,10 @@
       <c r="B39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="10" t="n">
         <v>7441</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -35731,10 +35740,10 @@
       <c r="B40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D40" s="10" t="n">
         <v>8401</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -35745,10 +35754,10 @@
       <c r="B41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="10" t="n">
         <v>8860</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -35759,10 +35768,10 @@
       <c r="B42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D42" s="10" t="n">
         <v>21898</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -35773,10 +35782,10 @@
       <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="11" t="n">
+      <c r="D43" s="10" t="n">
         <v>963</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35787,10 +35796,10 @@
       <c r="B44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D44" s="10" t="n">
         <v>3322</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35801,10 +35810,10 @@
       <c r="B45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="10" t="n">
         <v>3348</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35815,10 +35824,10 @@
       <c r="B46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D46" s="10" t="n">
         <v>3691</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35829,10 +35838,10 @@
       <c r="B47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="11" t="n">
+      <c r="D47" s="10" t="n">
         <v>6716</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35843,10 +35852,10 @@
       <c r="B48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D48" s="10" t="n">
         <v>8200</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35857,10 +35866,10 @@
       <c r="B49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="11" t="n">
+      <c r="D49" s="10" t="n">
         <v>9535</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35871,10 +35880,10 @@
       <c r="B50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D50" s="10" t="n">
         <v>9841</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35885,10 +35894,10 @@
       <c r="B51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="10" t="n">
         <v>20893</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35899,10 +35908,10 @@
       <c r="B52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D52" s="10" t="n">
         <v>21205</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35913,10 +35922,10 @@
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="11" t="n">
+      <c r="D53" s="10" t="n">
         <v>21285</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35927,10 +35936,10 @@
       <c r="B54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D54" s="10" t="n">
         <v>22361</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35941,10 +35950,10 @@
       <c r="B55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="11" t="n">
+      <c r="D55" s="10" t="n">
         <v>22420</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -35955,10 +35964,10 @@
       <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D56" s="10" t="n">
         <v>5260</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -35969,10 +35978,10 @@
       <c r="B57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="11" t="n">
+      <c r="D57" s="10" t="n">
         <v>6949</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -35983,10 +35992,10 @@
       <c r="B58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="11" t="n">
+      <c r="D58" s="10" t="n">
         <v>23817</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -35997,10 +36006,10 @@
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="11" t="n">
+      <c r="D59" s="10" t="n">
         <v>24162</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -36011,10 +36020,10 @@
       <c r="B60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="11" t="n">
+      <c r="D60" s="10" t="n">
         <v>6549</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36025,10 +36034,10 @@
       <c r="B61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="11" t="n">
+      <c r="D61" s="10" t="n">
         <v>7306</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36039,10 +36048,10 @@
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="11" t="n">
+      <c r="D62" s="10" t="n">
         <v>7460</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36053,10 +36062,10 @@
       <c r="B63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="11" t="n">
+      <c r="D63" s="10" t="n">
         <v>8386</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36067,10 +36076,10 @@
       <c r="B64" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="11" t="n">
+      <c r="D64" s="10" t="n">
         <v>9442</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36081,10 +36090,10 @@
       <c r="B65" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="11" t="n">
+      <c r="D65" s="10" t="n">
         <v>20526</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36095,10 +36104,10 @@
       <c r="B66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="11" t="n">
+      <c r="D66" s="10" t="n">
         <v>21599</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36109,10 +36118,10 @@
       <c r="B67" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="11" t="n">
+      <c r="D67" s="10" t="n">
         <v>23166</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36123,10 +36132,10 @@
       <c r="B68" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D68" s="10" t="n">
         <v>23482</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -36137,10 +36146,10 @@
       <c r="B69" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="11" t="n">
+      <c r="D69" s="10" t="n">
         <v>4853</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36151,10 +36160,10 @@
       <c r="B70" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="11" t="n">
+      <c r="D70" s="10" t="n">
         <v>9052</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36165,10 +36174,10 @@
       <c r="B71" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="11" t="n">
+      <c r="D71" s="10" t="n">
         <v>9301</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36179,10 +36188,10 @@
       <c r="B72" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="11" t="n">
+      <c r="D72" s="10" t="n">
         <v>9320</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36193,10 +36202,10 @@
       <c r="B73" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="11" t="n">
+      <c r="D73" s="10" t="n">
         <v>9736</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36207,10 +36216,10 @@
       <c r="B74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="11" t="n">
+      <c r="D74" s="10" t="n">
         <v>21248</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36221,10 +36230,10 @@
       <c r="B75" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="11" t="n">
+      <c r="D75" s="10" t="n">
         <v>21583</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36235,10 +36244,10 @@
       <c r="B76" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="11" t="n">
+      <c r="D76" s="10" t="n">
         <v>21832</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36249,10 +36258,10 @@
       <c r="B77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="11" t="n">
+      <c r="D77" s="10" t="n">
         <v>22685</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36263,10 +36272,10 @@
       <c r="B78" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="11" t="n">
+      <c r="D78" s="10" t="n">
         <v>6507</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -36277,10 +36286,10 @@
       <c r="B79" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="11" t="n">
+      <c r="D79" s="10" t="n">
         <v>7020</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -36291,10 +36300,10 @@
       <c r="B80" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="11" t="n">
+      <c r="D80" s="10" t="n">
         <v>8695</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -36305,10 +36314,10 @@
       <c r="B81" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="11" t="n">
+      <c r="D81" s="10" t="n">
         <v>9195</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -36319,10 +36328,10 @@
       <c r="B82" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="11" t="n">
+      <c r="D82" s="10" t="n">
         <v>9216</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -36333,10 +36342,10 @@
       <c r="B83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="11" t="n">
+      <c r="D83" s="10" t="n">
         <v>9637</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -36347,10 +36356,10 @@
       <c r="B84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="11" t="n">
+      <c r="D84" s="10" t="n">
         <v>6139</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36361,10 +36370,10 @@
       <c r="B85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="11" t="n">
+      <c r="D85" s="10" t="n">
         <v>6473</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36375,10 +36384,10 @@
       <c r="B86" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="11" t="n">
+      <c r="D86" s="10" t="n">
         <v>6885</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36389,10 +36398,10 @@
       <c r="B87" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="11" t="n">
+      <c r="D87" s="10" t="n">
         <v>7193</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36403,10 +36412,10 @@
       <c r="B88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="11" t="n">
+      <c r="D88" s="10" t="n">
         <v>7715</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36417,10 +36426,10 @@
       <c r="B89" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="11" t="n">
+      <c r="D89" s="10" t="n">
         <v>8596</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36431,10 +36440,10 @@
       <c r="B90" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="11" t="n">
+      <c r="D90" s="10" t="n">
         <v>8904</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36445,10 +36454,10 @@
       <c r="B91" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="11" t="n">
+      <c r="D91" s="10" t="n">
         <v>9139</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36459,10 +36468,10 @@
       <c r="B92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="11" t="n">
+      <c r="D92" s="10" t="n">
         <v>9291</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36473,10 +36482,10 @@
       <c r="B93" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="11" t="n">
+      <c r="D93" s="10" t="n">
         <v>21753</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36487,10 +36496,10 @@
       <c r="B94" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="11" t="n">
+      <c r="D94" s="10" t="n">
         <v>22171</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36501,10 +36510,10 @@
       <c r="B95" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="11" t="n">
+      <c r="D95" s="10" t="n">
         <v>22441</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36515,10 +36524,10 @@
       <c r="B96" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="11" t="n">
+      <c r="D96" s="10" t="n">
         <v>22671</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36529,10 +36538,10 @@
       <c r="B97" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="11" t="n">
+      <c r="D97" s="10" t="n">
         <v>23166</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -36543,10 +36552,10 @@
       <c r="B98" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="11" t="n">
+      <c r="D98" s="10" t="n">
         <v>1637</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -36557,10 +36566,10 @@
       <c r="B99" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="11" t="n">
+      <c r="D99" s="10" t="n">
         <v>23434</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -36571,10 +36580,10 @@
       <c r="B100" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="11" t="n">
+      <c r="D100" s="10" t="n">
         <v>23028</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -36585,10 +36594,10 @@
       <c r="B101" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D101" s="11" t="n">
+      <c r="D101" s="10" t="n">
         <v>23425</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -36599,10 +36608,10 @@
       <c r="B102" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="11" t="n">
+      <c r="D102" s="10" t="n">
         <v>23493</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -36613,10 +36622,10 @@
       <c r="B103" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D103" s="11" t="n">
+      <c r="D103" s="10" t="n">
         <v>23640</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -36627,10 +36636,10 @@
       <c r="B104" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D104" s="11" t="n">
+      <c r="D104" s="10" t="n">
         <v>23894</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -36641,10 +36650,10 @@
       <c r="B105" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="11" t="n">
+      <c r="D105" s="10" t="n">
         <v>3269</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36655,10 +36664,10 @@
       <c r="B106" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D106" s="11" t="n">
+      <c r="D106" s="10" t="n">
         <v>3819</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36669,10 +36678,10 @@
       <c r="B107" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D107" s="11" t="n">
+      <c r="D107" s="10" t="n">
         <v>6388</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36683,10 +36692,10 @@
       <c r="B108" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D108" s="11" t="n">
+      <c r="D108" s="10" t="n">
         <v>7023</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36697,10 +36706,10 @@
       <c r="B109" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D109" s="11" t="n">
+      <c r="D109" s="10" t="n">
         <v>7108</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36711,10 +36720,10 @@
       <c r="B110" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="11" t="n">
+      <c r="D110" s="10" t="n">
         <v>9598</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36725,10 +36734,10 @@
       <c r="B111" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D111" s="11" t="n">
+      <c r="D111" s="10" t="n">
         <v>20413</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36739,10 +36748,10 @@
       <c r="B112" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D112" s="11" t="n">
+      <c r="D112" s="10" t="n">
         <v>20878</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36753,10 +36762,10 @@
       <c r="B113" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D113" s="11" t="n">
+      <c r="D113" s="10" t="n">
         <v>22509</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36767,10 +36776,10 @@
       <c r="B114" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D114" s="11" t="n">
+      <c r="D114" s="10" t="n">
         <v>22722</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -36781,10 +36790,10 @@
       <c r="B115" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D115" s="11" t="n">
+      <c r="D115" s="10" t="n">
         <v>6850</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -36795,10 +36804,10 @@
       <c r="B116" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D116" s="11" t="n">
+      <c r="D116" s="10" t="n">
         <v>9381</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -36809,10 +36818,10 @@
       <c r="B117" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D117" s="11" t="n">
+      <c r="D117" s="10" t="n">
         <v>7167</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36823,10 +36832,10 @@
       <c r="B118" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D118" s="11" t="n">
+      <c r="D118" s="10" t="n">
         <v>7255</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36837,10 +36846,10 @@
       <c r="B119" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D119" s="11" t="n">
+      <c r="D119" s="10" t="n">
         <v>8100</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36851,10 +36860,10 @@
       <c r="B120" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D120" s="11" t="n">
+      <c r="D120" s="10" t="n">
         <v>8340</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36865,10 +36874,10 @@
       <c r="B121" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D121" s="11" t="n">
+      <c r="D121" s="10" t="n">
         <v>9024</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36879,10 +36888,10 @@
       <c r="B122" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D122" s="11" t="n">
+      <c r="D122" s="10" t="n">
         <v>9942</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36893,10 +36902,10 @@
       <c r="B123" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D123" s="11" t="n">
+      <c r="D123" s="10" t="n">
         <v>21637</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36907,10 +36916,10 @@
       <c r="B124" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D124" s="11" t="n">
+      <c r="D124" s="10" t="n">
         <v>7167</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -36921,10 +36930,10 @@
       <c r="B125" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D125" s="11" t="n">
+      <c r="D125" s="10" t="n">
         <v>7255</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -36935,10 +36944,10 @@
       <c r="B126" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D126" s="11" t="n">
+      <c r="D126" s="10" t="n">
         <v>9942</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -36949,10 +36958,10 @@
       <c r="B127" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D127" s="11" t="n">
+      <c r="D127" s="10" t="n">
         <v>9964</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -36963,10 +36972,10 @@
       <c r="B128" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D128" s="11" t="n">
+      <c r="D128" s="10" t="n">
         <v>20752</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -36977,10 +36986,10 @@
       <c r="B129" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D129" s="11" t="n">
+      <c r="D129" s="10" t="n">
         <v>20781</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -36991,10 +37000,10 @@
       <c r="B130" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D130" s="11" t="n">
+      <c r="D130" s="10" t="n">
         <v>20871</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -37005,10 +37014,10 @@
       <c r="B131" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D131" s="11" t="n">
+      <c r="D131" s="10" t="n">
         <v>21876</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -37019,10 +37028,10 @@
       <c r="B132" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="11" t="n">
+      <c r="D132" s="10" t="n">
         <v>22245</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -37033,10 +37042,10 @@
       <c r="B133" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D133" s="11" t="n">
+      <c r="D133" s="10" t="n">
         <v>6474</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -37047,10 +37056,10 @@
       <c r="B134" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D134" s="11" t="n">
+      <c r="D134" s="10" t="n">
         <v>9442</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -37061,10 +37070,10 @@
       <c r="B135" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D135" s="11" t="n">
+      <c r="D135" s="10" t="n">
         <v>9923</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -37075,10 +37084,10 @@
       <c r="B136" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D136" s="11" t="n">
+      <c r="D136" s="10" t="n">
         <v>20329</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -37089,10 +37098,10 @@
       <c r="B137" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D137" s="11" t="n">
+      <c r="D137" s="10" t="n">
         <v>5682</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -37103,10 +37112,10 @@
       <c r="B138" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D138" s="11" t="n">
+      <c r="D138" s="10" t="n">
         <v>7255</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -37117,10 +37126,10 @@
       <c r="B139" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D139" s="11" t="n">
+      <c r="D139" s="10" t="n">
         <v>8143</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -37131,10 +37140,10 @@
       <c r="B140" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D140" s="11" t="n">
+      <c r="D140" s="10" t="n">
         <v>20680</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -37145,10 +37154,10 @@
       <c r="B141" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D141" s="11" t="n">
+      <c r="D141" s="10" t="n">
         <v>20979</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -37159,10 +37168,10 @@
       <c r="B142" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D142" s="11" t="n">
+      <c r="D142" s="10" t="n">
         <v>22305</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -37856,8 +37865,8 @@
   </sheetPr>
   <dimension ref="A1:E983"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
